--- a/input/Financial Statement GPS/CashflowStatements-GPS.xlsx
+++ b/input/Financial Statement GPS/CashflowStatements-GPS.xlsx
@@ -7,29 +7,27 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Q2 2017 (2016)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Q3 2017 (2016)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Year Ended 2017" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Q2 2018 (2017)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Q3 2018 (2017)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Year Ended 2018" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Q1 2019 (2018)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Q2 2019 (2018)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Q3 2019 (2018)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Year Ended 2019" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Q1 2020 (2019)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Q2 2020 (2019)" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Q3 2020 (2019)" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Year Ended 2020" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Q1 2021 (2020)" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Q2 2021 (2020)" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Q3 2021 (2020)" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Year Ended 2021" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Q1 2022 (2021)" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Q2 2022 (2021)" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Q3 2022 (2021)" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Year Ended 2022" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Q1 2023 (2022)" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Year Ended 2017" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Q2 2018 (2017)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Q3 2018 (2017)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Year Ended 2018" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Q1 2019 (2018)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Q2 2019 (2018)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Q3 2019 (2018)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Year Ended 2019" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Q1 2020 (2019)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Q2 2020 (2019)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Q3 2020 (2019)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Year Ended 2020" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Q1 2021 (2020)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Q2 2021 (2020)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Q3 2021 (2020)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Year Ended 2021" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Q1 2022 (2021)" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Q2 2022 (2021)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Q3 2022 (2021)" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Year Ended 2022" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Q1 2023 (2022)" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +461,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jul. 30, 2016</t>
+          <t>Jan. 28, 2017</t>
         </is>
       </c>
     </row>
@@ -482,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>252</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4">
@@ -500,17 +498,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>303</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Amortization of lease incentives</t>
+          <t>Amortization Lease Incentives</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +518,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -530,7 +528,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9">
@@ -546,301 +544,361 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Non-cash and other items</t>
+          <t>Other Asset Impairment Charges</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Deferred income taxes</t>
+          <t>Goodwill, Impairment Loss</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Merchandise inventory</t>
+          <t>Deferred income taxes</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-52</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>31</v>
-      </c>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Merchandise inventory</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Other current assets and other long-term assets</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+          <t>Accounts payable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Net cash provided by operating activities</t>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Purchases of property and equipment</t>
+          <t>Net cash provided by operating activities</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-270</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1</v>
-      </c>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Net cash used for investing activities</t>
+          <t>Purchases of property and equipment</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-271</v>
+        <v>-524</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Proceeds from Sale of Property, Plant, and Equipment</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
+          <t>Net cash used for investing activities</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-17</v>
+        <v>-529</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+          <t>Proceeds from issuance of short-term debt</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cash dividends paid</t>
+          <t>Payments of short-term debt</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-183</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Payments of long-term debt</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Net cash used for financing activities</t>
+          <t>Proceeds from issuances under share-based compensation plans</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-160</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+          <t>Withholding tax payments related to vesting of stock units</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Net increase (decrease) in cash and cash equivalents</t>
+          <t>Repurchases of common stock</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents at beginning of period</t>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1370</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents at end of period</t>
+          <t>Cash dividends paid</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1681</v>
+        <v>-367</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Non-cash investing activities:</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Purchases of property and equipment not yet paid at end of period</t>
+          <t>Net cash used for financing activities</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46</v>
+        <v>-777</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cash paid for interest during the period</t>
+          <t>Net increase (decrease) in cash and cash equivalents</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>41</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Cash and cash equivalents at beginning of period</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at end of period</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Non-cash investing activities:</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment not yet paid at end of period</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>Cash paid for income taxes during the period, net of refunds</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>143</v>
+      <c r="B46" t="n">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,211 +928,214 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Feb. 02, 2019</t>
+          <t>Aug. 03, 2019</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Document Period End Date</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Aug. 3,
+		2019</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1003</v>
-      </c>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>395</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>578</v>
-      </c>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Amortization Lease Incentives</t>
+          <t>Depreciation and amortization</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Share-based compensation</t>
+          <t>Amortization of lease incentives</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tax benefit from exercise of stock options and vesting of stock units</t>
+          <t>Share-based compensation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+          <t>Non-cash and other items</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Other Asset Impairment Charges</t>
+          <t>Gain (Loss) on Disposition of Property Plant Equipment</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>-191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Goodwill, Impairment Loss</t>
+          <t>Deferred income taxes</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-6</v>
-      </c>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Deferred income taxes</t>
+          <t>Merchandise inventory</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Merchandise inventory</t>
+          <t>Accounts payable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Other current assets and other long-term assets</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Lease incentives and other long-term liabilities</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-196</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+          <t>Operating lease assets and liabilities, net</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
+          <t>Net cash provided by operating activities</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1381</v>
-      </c>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>Proceeds from Sale of Buildings</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1083,7 +1144,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-705</v>
+        <v>-324</v>
       </c>
     </row>
     <row r="24">
@@ -1093,27 +1154,27 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-464</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sales and maturities of short-term investments</t>
+          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Insurance proceeds related to loss on property and equipment</t>
+          <t>Payments to Acquire Businesses, Net of Cash Acquired</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="27">
@@ -1123,7 +1184,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1133,26 +1194,26 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1001</v>
+        <v>-520</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>Payments to Acquire Buildings</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-343</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Payments of debt</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1161,7 +1222,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1171,7 +1232,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-23</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="33">
@@ -1181,133 +1242,115 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-398</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+          <t>Cash dividends paid</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-183</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cash dividends paid</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Net cash used for financing activities</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>-286</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Net cash used for financing activities</t>
+          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-749</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Effect of Exchange Rate on Cash, Cash Equivalents, and Restricted Cash</t>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-10</v>
+        <v>-225</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Net increase (decrease) in Cash, Cash Equivalents, and Restricted Cash</t>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-379</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cash, Cash Equivalents, and Restricted Cash at beginning of period</t>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1799</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cash, Cash Equivalents, and Restricted Cash end of period</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1420</v>
-      </c>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Non-cash investing activities:</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>Interest Paid, Excluding Capitalized Interest, Operating Activities</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Purchases of property and equipment not yet paid at end of period</t>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Cash paid for interest during the period</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>143</v>
+          <t>Operating Lease, Payments</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -1337,331 +1380,328 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>May 04, 2019</t>
+          <t>Nov. 02, 2019</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Document Period End Date</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>May 4,
-		2019</t>
-        </is>
-      </c>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>535</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>227</v>
-      </c>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>417</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Depreciation and amortization</t>
+          <t>Amortization of lease incentives</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Amortization of lease incentives</t>
+          <t>Share-based compensation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Share-based compensation</t>
+          <t>Non-cash and other items</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Non-cash and other items</t>
+          <t>Gain (Loss) on Disposition of Property Plant Equipment</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>-191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gain (Loss) on Disposition of Property Plant Equipment</t>
+          <t>Deferred income taxes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-191</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>23</v>
-      </c>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>559</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Merchandise inventory</t>
+          <t>Other current assets and other long-term assets</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Other current assets and other long-term assets</t>
+          <t>Accounts payable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+          <t>Lease incentives and other long-term liabilities</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
+          <t>Operating lease assets and liabilities, net</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ChangeOperatingLeaseAssetAndLiabilitiesNet</t>
+          <t>Net cash provided by operating activities</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>29</v>
-      </c>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>Proceeds from Sale of Buildings</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Proceeds from Sale of Buildings</t>
+          <t>Purchases of property and equipment</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>220</v>
+        <v>-523</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Purchases of property and equipment</t>
+          <t>Payments to Acquire Short-term Investments</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-165</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Payments to Acquire Short-term Investments</t>
+          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-69</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
+          <t>Payments to Acquire Businesses, Net of Cash Acquired</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Payments to Acquire Businesses, Net of Cash Acquired</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Net cash used for investing activities</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>-719</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Net cash used for investing activities</t>
+          <t>Payments to Acquire Buildings</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-340</v>
+        <v>-343</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Payments to Acquire Buildings</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-343</v>
-      </c>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
+          <t>Withholding tax payments related to vesting of stock units</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
+          <t>Repurchases of common stock</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-19</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Repurchases of common stock</t>
+          <t>Cash dividends paid</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-50</v>
+        <v>-274</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cash dividends paid</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1711,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-151</v>
+        <v>-423</v>
       </c>
     </row>
     <row r="36">
@@ -1691,7 +1731,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-462</v>
+        <v>-614</v>
       </c>
     </row>
     <row r="38">
@@ -1711,7 +1751,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>958</v>
+        <v>806</v>
       </c>
     </row>
     <row r="40">
@@ -1725,11 +1765,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cash paid for interest during the period</t>
+          <t>Interest Paid, Excluding Capitalized Interest, Operating Activities</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -1739,7 +1779,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43">
@@ -1749,7 +1789,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>301</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -1758,897 +1798,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Aug. 03, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Document Period End Date</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Aug. 3,
-		2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Amortization of lease incentives</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Gain (Loss) on Disposition of Property Plant Equipment</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-191</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Operating lease assets and liabilities, net</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale of Buildings</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-324</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Businesses, Net of Cash Acquired</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-69</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Net cash used for investing activities</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-520</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Buildings</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-343</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-183</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Net cash used for financing activities</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-286</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-225</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Interest Paid, Excluding Capitalized Interest, Operating Activities</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Operating Lease, Payments</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>612</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nov. 02, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Amortization of lease incentives</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Gain (Loss) on Disposition of Property Plant Equipment</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-191</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Operating lease assets and liabilities, net</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale of Buildings</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-523</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-235</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Businesses, Net of Cash Acquired</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-69</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Net cash used for investing activities</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-719</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Buildings</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-343</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-274</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Net cash used for financing activities</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-423</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-614</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Interest Paid, Excluding Capitalized Interest, Operating Activities</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Operating Lease, Payments</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>916</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3155,7 +2304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3584,7 +2733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4083,7 +3232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4582,7 +3731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5139,7 +4288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5541,6 +4690,974 @@
       </c>
       <c r="B40" t="n">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jul. 31, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income (loss)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Operating Lease, Impairment Loss</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Other Asset Impairment Charges</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gain (Loss) on Extinguishment of Debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Amortization of Debt Issuance Costs</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Gain (Loss) on Disposition of Business</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of receivables and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Operating lease assets and liabilities, net</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Net cash provided by (used for) operating activities</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Businesses, Net of Cash Acquired</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-269</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-427</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Net cash provided by (used for) investing activities</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-217</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Proceeds from Lines of Credit</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Proceeds from issuance of long-term debt</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Repayments of Long-term Debt</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Payments of Debt Issuance Costs</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Repayments of Lines of Credit</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Net cash provided by (used for) financing activities</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Interest Paid, Excluding Capitalized Interest, Operating Activities</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Oct. 30, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income (loss)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Operating Lease, Impairment Loss</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Other Asset Impairment Charges</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gain (Loss) on Extinguishment of Debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Amortization of Debt Issuance Costs</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Gain (Loss) on Disposition of Business</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-288</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of receivables and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Operating lease assets and liabilities, net</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Net cash provided by (used for) operating activities</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-486</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-634</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Payments for acquisition activity, net of cash acquired</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Net cash paid for divestiture activity</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Net cash provided by (used for) investing activities</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-508</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Proceeds from Lines of Credit</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-182</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Proceeds from issuance of long-term debt</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Payments to extinguish debt</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-2546</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Payments for Debt Issuance Costs</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Repayments of Lines of Credit</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Net cash provided by (used for) financing activities</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-1358</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-1187</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Interest Paid, Excluding Capitalized Interest, Operating Activities</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5570,7 +5687,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oct. 29, 2016</t>
+          <t>Jul. 29, 2017</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5706,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>456</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4">
@@ -5607,7 +5724,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>449</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6">
@@ -5617,7 +5734,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="7">
@@ -5627,7 +5744,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -5637,7 +5754,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5647,217 +5764,217 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Non-cash and other items</t>
+          <t>Asset Impairment Charges</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Deferred income taxes</t>
+          <t>Non-cash and other items</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-27</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-513</v>
-      </c>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Other current assets and other long-term assets</t>
+          <t>Merchandise inventory</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-52</v>
+        <v>-203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Other current assets and other long-term assets</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>294</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Accounts payable</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>80</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-18</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Net cash provided by operating activities</t>
+          <t>Lease incentives and other long-term liabilities</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>486</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-383</v>
-      </c>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Purchases of property and equipment</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Net cash used for investing activities</t>
+          <t>Insurance proceeds related to loss on property and equipment</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-384</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Proceeds from Short-term Debt</t>
+          <t>Net cash used for investing activities</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
+          <t>Payments of current maturities of debt</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-18</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Repurchases of common stock</t>
+          <t>Proceeds from issuances under share-based compensation plans</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+          <t>Withholding tax payments related to vesting of stock units</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cash dividends paid</t>
+          <t>Repurchases of common stock</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-275</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5867,69 +5984,71 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Net cash used for financing activities</t>
+          <t>Cash dividends paid</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-267</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Net increase (decrease) in cash and cash equivalents</t>
+          <t>Net cash used for financing activities</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152</v>
+        <v>-449</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents at beginning of period</t>
+          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1370</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents at end of period</t>
+          <t>Net increase (decrease) in cash and cash equivalents</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1522</v>
+        <v>-174</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Non-cash investing activities:</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>Cash and cash equivalents at beginning of period</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Purchases of property and equipment not yet paid at end of period</t>
+          <t>Cash and cash equivalents at end of period</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>63</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="39">
@@ -5947,7 +6066,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
@@ -5957,7 +6076,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>318</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5966,974 +6085,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Jul. 31, 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Net income (loss)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Operating Lease, Impairment Loss</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Other Asset Impairment Charges</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Gain (Loss) on Extinguishment of Debt</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Amortization of Debt Issuance Costs</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Gain (Loss) on Disposition of Business</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-98</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-168</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of receivables and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-55</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Operating lease assets and liabilities, net</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-39</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Net cash provided by (used for) operating activities</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Businesses, Net of Cash Acquired</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-269</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-427</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Net cash provided by (used for) investing activities</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-217</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Proceeds from Lines of Credit</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-55</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-137</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Proceeds from issuance of long-term debt</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Repayments of Long-term Debt</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Payments of Debt Issuance Costs</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Repayments of Lines of Credit</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Net cash provided by (used for) financing activities</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-183</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Interest Paid, Excluding Capitalized Interest, Operating Activities</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Oct. 30, 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Net income (loss)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Operating Lease, Impairment Loss</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Other Asset Impairment Charges</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Gain (Loss) on Extinguishment of Debt</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Amortization of Debt Issuance Costs</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Gain (Loss) on Disposition of Business</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-28</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-288</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-168</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-119</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of receivables and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-94</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Operating lease assets and liabilities, net</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-73</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Net cash provided by (used for) operating activities</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-486</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-634</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Payments for acquisition activity, net of cash acquired</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-135</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Net cash paid for divestiture activity</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Net cash provided by (used for) investing activities</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-508</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Proceeds from Lines of Credit</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-128</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-182</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Proceeds from issuance of long-term debt</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Payments to extinguish debt</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-2546</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Payments for Debt Issuance Costs</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Repayments of Lines of Credit</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Net cash provided by (used for) financing activities</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-1358</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>-1187</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Interest Paid, Excluding Capitalized Interest, Operating Activities</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7500,7 +6651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7935,7 +7086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7951,7 +7102,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jan. 28, 2017</t>
+          <t>Oct. 28, 2017</t>
         </is>
       </c>
     </row>
@@ -7970,7 +7121,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>676</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4">
@@ -7988,17 +7139,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>593</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Amortization Lease Incentives</t>
+          <t>Amortization of lease incentives</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="7">
@@ -8008,7 +7159,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -8018,7 +7169,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -8028,367 +7179,309 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Other Asset Impairment Charges</t>
+          <t>Store asset impairment charges</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Goodwill, Impairment Loss</t>
+          <t>Non-cash and other items</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Non-cash and other items</t>
+          <t>Deferred income taxes</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-54</v>
-      </c>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-636</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Merchandise inventory</t>
+          <t>Other current assets and other long-term assets</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>46</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Other current assets and other long-term assets</t>
+          <t>Accounts payable</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>146</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>76</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+          <t>Lease incentives and other long-term liabilities</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
+          <t>Net cash provided by operating activities</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-20</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1719</v>
-      </c>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-463</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Purchases of property and equipment</t>
+          <t>Insurance proceeds related to loss on property and equipment</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-524</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Proceeds from Sale of Property, Plant, and Equipment</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Net cash used for investing activities</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-5</v>
+        <v>-406</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Net cash used for investing activities</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-529</v>
-      </c>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>Payments of current maturities of debt</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-67</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Proceeds from issuance of short-term debt</t>
+          <t>Proceeds from issuances under share-based compensation plans</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Payments of short-term debt</t>
+          <t>Withholding tax payments related to vesting of stock units</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-400</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Payments of long-term debt</t>
+          <t>Repurchases of common stock</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-21</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
+          <t>Cash dividends paid</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-19</v>
+        <v>-272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Repurchases of common stock</t>
+          <t>Net cash used for financing activities</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>-631</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cash dividends paid</t>
+          <t>Net increase (decrease) in cash and cash equivalents</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-367</v>
+        <v>-430</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Cash and cash equivalents at beginning of period</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Net cash used for financing activities</t>
+          <t>Cash and cash equivalents at end of period</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-777</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Net increase (decrease) in cash and cash equivalents</t>
+          <t>Cash paid for interest during the period</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>413</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents at beginning of period</t>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents at end of period</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Non-cash investing activities:</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment not yet paid at end of period</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Cash paid for interest during the period</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>488</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -8402,7 +7495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8418,7 +7511,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jul. 29, 2017</t>
+          <t>Feb. 03, 2018</t>
         </is>
       </c>
     </row>
@@ -8437,7 +7530,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>414</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4">
@@ -8455,17 +7548,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>279</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Amortization of lease incentives</t>
+          <t>Amortization Lease Incentives</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="7">
@@ -8475,7 +7568,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -8501,17 +7594,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Asset Impairment Charges</t>
+          <t>Other Asset Impairment Charges</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Non-cash and other items</t>
+          <t>Goodwill, Impairment Loss</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -8521,211 +7614,211 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Deferred income taxes</t>
+          <t>Non-cash and other items</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-203</v>
-      </c>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Other current assets and other long-term assets</t>
+          <t>Merchandise inventory</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-23</v>
+        <v>-142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Other current assets and other long-term assets</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Accounts payable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-111</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Net cash provided by operating activities</t>
+          <t>Lease incentives and other long-term liabilities</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>486</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1380</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-275</v>
-      </c>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Insurance proceeds related to loss on property and equipment</t>
+          <t>Purchases of property and equipment</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>59</v>
+        <v>-731</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Insurance proceeds related to loss on property and equipment</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Net cash used for investing activities</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-219</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-668</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Payments of current maturities of debt</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-67</v>
-      </c>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
+          <t>Proceeds from issuance of debt</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
+          <t>Payments of debt</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-14</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Repurchases of common stock</t>
+          <t>Proceeds from issuances under share-based compensation plans</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+          <t>Withholding tax payments related to vesting of stock units</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cash dividends paid</t>
+          <t>Repurchases of common stock</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-182</v>
+        <v>-315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -8735,79 +7828,117 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Net cash used for financing activities</t>
+          <t>Cash dividends paid</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-449</v>
+        <v>-361</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Net increase (decrease) in cash and cash equivalents</t>
+          <t>Net cash used for financing activities</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-174</v>
+        <v>-731</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents at beginning of period</t>
+          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1783</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents at end of period</t>
+          <t>Net increase (decrease) in cash and cash equivalents</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>Cash and cash equivalents at beginning of period</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cash paid for interest during the period</t>
+          <t>Cash and cash equivalents at end of period</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>Non-cash investing activities:</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment not yet paid at end of period</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>Cash paid for income taxes during the period, net of refunds</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>130</v>
+      <c r="B45" t="n">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -8816,6 +7947,385 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>May 05, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amortization of lease incentives</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-232</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Insurance proceeds related to loss on property and equipment</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Proceeds from Sale of Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-309</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-193</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-570</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8837,7 +8347,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oct. 28, 2017</t>
+          <t>Aug. 04, 2018</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8366,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>643</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4">
@@ -8874,7 +8384,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>418</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6">
@@ -8884,7 +8394,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="7">
@@ -8894,13 +8404,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tax benefit from exercise of stock options and vesting of stock units</t>
+          <t>Other long-lived asset impairment charges</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -8910,147 +8420,147 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+          <t>Non-cash and other items</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Store asset impairment charges</t>
+          <t>Deferred income taxes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Deferred income taxes</t>
+          <t>Merchandise inventory</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-50</v>
+        <v>-224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-46</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Merchandise inventory</t>
+          <t>Accounts payable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-636</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Other current assets and other long-term assets</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-60</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Lease incentives and other long-term liabilities</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+          <t>Net cash provided by operating activities</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>188</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>48</v>
-      </c>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Net cash provided by operating activities</t>
+          <t>Purchases of property and equipment</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>600</v>
+        <v>-326</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>Insurance proceeds related to loss on property and equipment</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Purchases of property and equipment</t>
+          <t>Payments to Acquire Short-term Investments</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-463</v>
+        <v>-322</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Insurance proceeds related to loss on property and equipment</t>
+          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -9060,7 +8570,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="25">
@@ -9070,7 +8580,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-406</v>
+        <v>-618</v>
       </c>
     </row>
     <row r="26">
@@ -9088,7 +8598,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -9098,7 +8608,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -9108,7 +8618,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="30">
@@ -9118,27 +8628,27 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-300</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+          <t>Cash dividends paid</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cash dividends paid</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-272</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -9148,47 +8658,47 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-631</v>
+        <v>-376</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Net increase (decrease) in cash and cash equivalents</t>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-430</v>
+        <v>-459</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents at beginning of period</t>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1783</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents at end of period</t>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1353</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="38">
@@ -9206,7 +8716,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -9216,464 +8726,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Feb. 03, 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Amortization Lease Incentives</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Tax benefit from exercise of stock options and vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Other Asset Impairment Charges</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Goodwill, Impairment Loss</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
         <v>61</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-142</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-52</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-731</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Insurance proceeds related to loss on property and equipment</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Net cash used for investing activities</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-668</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Proceeds from issuance of debt</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Payments of debt</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-67</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-315</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-361</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Net cash used for financing activities</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-731</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Net increase (decrease) in cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents at beginning of period</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents at end of period</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Non-cash investing activities:</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment not yet paid at end of period</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Cash paid for interest during the period</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -9682,794 +8735,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>May 05, 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Amortization of lease incentives</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-232</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-138</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Insurance proceeds related to loss on property and equipment</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-167</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale of Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Net cash used for investing activities</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-309</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-94</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Net cash used for financing activities</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-193</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-570</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Cash paid for interest during the period</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Aug. 04, 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Amortization of lease incentives</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Other long-lived asset impairment charges</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-224</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-180</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-326</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Insurance proceeds related to loss on property and equipment</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-322</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Net cash used for investing activities</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-618</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Payments of current maturities of debt</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-188</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Net cash used for financing activities</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-376</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-459</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Cash paid for interest during the period</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10866,4 +9131,913 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Feb. 02, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amortization Lease Incentives</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Other Asset Impairment Charges</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Goodwill, Impairment Loss</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-705</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-464</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sales and maturities of short-term investments</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Insurance proceeds related to loss on property and equipment</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-1001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Payments of debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-398</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-373</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-749</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Effect of Exchange Rate on Cash, Cash Equivalents, and Restricted Cash</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Net increase (decrease) in Cash, Cash Equivalents, and Restricted Cash</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-379</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, and Restricted Cash at beginning of period</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, and Restricted Cash end of period</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Non-cash investing activities:</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment not yet paid at end of period</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>May 04, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Document Period End Date</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>May 4,
+		2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Amortization of lease incentives</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gain (Loss) on Disposition of Property Plant Equipment</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-191</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ChangeOperatingLeaseAssetAndLiabilitiesNet</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Proceeds from Sale of Buildings</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Businesses, Net of Cash Acquired</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-340</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Buildings</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-343</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-462</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Operating Lease, Payments</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>